--- a/data/Eksklusionslister/PFA_eksklusionsliste_isin.xlsx
+++ b/data/Eksklusionslister/PFA_eksklusionsliste_isin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,17 +865,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Mexico', 'Wal-Mart de Mexico SAB de CV', 'WALMART INC', 'Walmart Inc.', 'Wal-Mart Stores', 'Wal-Mart Stores Inc', 'Walmart\xa0Inc']</t>
+          <t>['Mexico', 'Wal-Mart de Mexico SAB de CV', 'WALMART INC', 'Walmart\xa0Inc', 'Wal-Mart Stores', 'Walmart Inc.', 'Wal-Mart Stores Inc']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Wal-Mart de Mexico SAB de CV', 'Walmart Inc.', 'Wal-Mart Stores Inc', 'Walmart', 'WALMART INC', 'Wal-Mart Stores', 'Walmart Inc', 'Walmart, Inc.']</t>
+          <t>['Wal-Mart de Mexico SAB de CV', 'Walmart', 'WALMART INC', 'Walmart Inc', 'Walmart Inc.', 'Wal-Mart Stores', 'Wal-Mart Stores Inc', 'Walmart, Inc.']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Fanø', 'Rødovre', 'Egedal', 'Favrskov', 'Faaborg-Midtfyn', 'Guldborgsund', 'Hedensted', 'Helsingør', 'Hørsholm', 'Mariagerfjord', 'Middelfart', 'Norddjurs', 'Nordfyn', 'Næstved', 'Odense', 'Randers', 'Region\xa0Nordjylland', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Region Sjælland', 'Skive', 'Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Holstebro', 'Horsens', 'Hvidovre', 'Høje Taastrup', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Nyborg', 'Rebild', 'Skanderborg', 'Solrød', 'Thisted', 'Tønder', 'Vallensbæk', 'Viborg', 'Aabenraa', 'Fredericia', 'Greve', 'Herning', 'Hillerød', 'Kolding', 'Lemvig', 'Varde', 'Ikast-Brande', 'Esbjerg', 'Aalborg', 'Aarhus']</t>
+          <t>['Fanø', 'Rødovre', 'Guldborgsund', 'Næstved', 'Odense', 'Randers', 'Region\xa0Nordjylland', 'Viborg', 'Mariagerfjord', 'Skive', 'Svendborg', 'Fredericia', 'Greve', 'Herning', 'Hillerød', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Varde', 'Aabenraa', 'Egedal', 'Favrskov', 'Region Sjælland', 'Assens', 'Billund', 'Bornholm', 'Frederiksberg', 'Gribskov', 'Holstebro', 'Horsens', 'Hvidovre', 'Jammerbugt', 'Lejre', 'Lyngby-Taarbæk', 'Nordfyn', 'Nyborg', 'Rebild', 'Roskilde', 'Skanderborg', 'Solrød', 'Thisted', 'Tønder', 'Vallensbæk', 'Norddjurs', 'Aalborg', 'Faaborg-Midtfyn', 'Hedensted', 'Helsingør', 'Middelfart', 'Slagelse', 'Syddjurs', 'Ikast-Brande', 'Esbjerg', 'Aarhus']</t>
         </is>
       </c>
     </row>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>['Fredericia', 'Greve', 'Herning', 'Hillerød', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Næstved', 'Randers', 'Skive', 'Varde', 'Aabenraa', 'Furesø', 'Ringkøbing-Skjern', 'Horsens', 'Mariagerfjord', 'Skanderborg', 'Syddjurs', 'Esbjerg', 'København', 'Odense', 'Aarhus']</t>
+          <t>['Fredericia', 'Greve', 'Herning', 'Hillerød', 'Høje Taastrup', 'Hørsholm', 'Kolding', 'Lemvig', 'Næstved', 'Randers', 'Skive', 'Varde', 'Aabenraa', 'Furesø', 'Ringkøbing-Skjern', 'Horsens', 'Mariagerfjord', 'Skanderborg', 'Syddjurs', 'København', 'Odense', 'Esbjerg', 'Aarhus']</t>
         </is>
       </c>
     </row>
@@ -4665,74 +4665,74 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">S&amp;T Holdings Co. Ltd.  </t>
+          <t>Safran Group</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sydkorea  </t>
+          <t xml:space="preserve">Frankrig </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forsvar  </t>
+          <t>Forsvar</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Involveret i produktionen af antipersonelle miner </t>
+          <t>Involveret i produktion af atomvåben</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>stholdingscoltd</t>
+          <t>safrangroup</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['JP3752900005']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['Japan', 'Japan Post Holdings Co. Ltd.', nan]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Japan Post Holdings Co. Ltd.', 'Japan Post Holdings Co Ltd', 'Japan Post Holdings Co., Ltd.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Fanø', 'Rødovre', 'Esbjerg', 'Aarhus']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Safran Group</t>
+          <t>Serco Group</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frankrig </t>
+          <t>Storbritannien</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Forsvar</t>
+          <t xml:space="preserve">Forsvar </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Involveret i produktion af atomvåben</t>
+          <t xml:space="preserve">Involveret i produktion af atomvåben </t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>safrangroup</t>
+          <t>sercogroup</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4759,27 +4759,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Serco Group</t>
+          <t>Textron USA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Storbritannien</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forsvar </t>
+          <t>Forsvar</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Involveret i produktion af atomvåben </t>
+          <t>Involveret i produktion af klyngevåben</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>sercogroup</t>
+          <t>textronusa</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4806,59 +4806,59 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Textron USA</t>
+          <t xml:space="preserve">Thales </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t xml:space="preserve">Frankrig </t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Forsvar</t>
+          <t xml:space="preserve">Forsvar </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Involveret i produktion af klyngevåben</t>
+          <t xml:space="preserve">Involveret i produktion af atomvåben </t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>textronusa</t>
+          <t>thales</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['FR0000121329']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Thales S.A.']</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Thales S.A.']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Rødovre']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thales </t>
+          <t xml:space="preserve">The Tata Power Company Limited </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frankrig </t>
+          <t xml:space="preserve">Indien </t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4873,54 +4873,54 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>thales</t>
+          <t>thetatapowercompanylimited</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['FR0000121329']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['Thales S.A.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Thales S.A.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Rødovre']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Tata Power Company Limited </t>
+          <t xml:space="preserve">Unis-Pretis NIS dd Vogosca </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Indien </t>
+          <t xml:space="preserve">Bosnien </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forsvar </t>
+          <t>Forsvar</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Involveret i produktion af atomvåben </t>
+          <t xml:space="preserve">Involveret i produktion af hvidt fosfor  </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>thetatapowercompanylimited</t>
+          <t>unispretisnisddvogosca</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4947,27 +4947,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unis-Pretis NIS dd Vogosca </t>
+          <t xml:space="preserve">Walchandnagar Industries Ltd. </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bosnien </t>
+          <t xml:space="preserve">Indien </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Forsvar</t>
+          <t xml:space="preserve">Forsvar </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Involveret i produktion af hvidt fosfor  </t>
+          <t xml:space="preserve">Involveret i produktion af atomvåben </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>unispretisnisddvogosca</t>
+          <t>walchandnagarindustriesltd</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4986,53 +4986,6 @@
         </is>
       </c>
       <c r="I98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walchandnagar Industries Ltd. </t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indien </t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forsvar </t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Involveret i produktion af atomvåben </t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>walchandnagarindustriesltd</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
